--- a/Test report.xlsx
+++ b/Test report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Folder\sqa assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASIF\Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F4B27D-8206-4D85-A20D-6AC73B9128CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0E2F6F-CBAB-4625-930E-B3FD146184BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C0680A37-D864-4427-8586-7CFBA7AF9446}"/>
   </bookViews>
@@ -424,18 +424,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -449,8 +443,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -552,15 +570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -571,28 +580,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -606,21 +644,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,37 +661,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -667,28 +702,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -697,6 +741,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,14 +756,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -730,6 +783,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -754,11 +810,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -790,8 +881,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>662940</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -891,7 +982,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>2758440</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>362492</xdr:rowOff>
+      <xdr:rowOff>347252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1232,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2EFC97-A6C3-4ACD-ADC2-761F58764A4B}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,320 +1342,320 @@
     <col min="11" max="11" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="77" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="55" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="8"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>2</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="49"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="7" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>3</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="22" t="s">
         <v>57</v>
       </c>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="49"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="23" t="s">
         <v>57</v>
       </c>
       <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+      <c r="A9" s="48">
         <v>4</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="55" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="49"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <v>5</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="22" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="17" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="22" t="s">
         <v>57</v>
       </c>
       <c r="K12" s="54"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
+      <c r="A13" s="48">
         <v>6</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H13" s="52" t="s">
@@ -1573,273 +1664,274 @@
       <c r="I13" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="35" t="s">
         <v>57</v>
       </c>
       <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="49"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="7" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="52"/>
       <c r="I14" s="51"/>
-      <c r="J14" s="41"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="54"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
+      <c r="A15" s="48">
         <v>7</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="3" t="s">
         <v>83</v>
       </c>
       <c r="H15" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="7" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="14">
         <v>12</v>
       </c>
       <c r="H16" s="52"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
+      <c r="A17" s="48">
         <v>8</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="7" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="7" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="49">
+      <c r="A19" s="48">
         <v>9</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="18" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="52"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="8"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="49">
+      <c r="A21" s="55">
         <v>10</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="7" t="s">
+      <c r="D21" s="45"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="8"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="49"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="7" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K22" s="8"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="20"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="22">
+      <c r="C27" s="27"/>
+      <c r="D27" s="66">
         <v>10</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="23">
+      <c r="C28" s="69"/>
+      <c r="D28" s="67">
         <v>6</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="30">
+      <c r="C29" s="18"/>
+      <c r="D29" s="71">
         <v>3</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="23">
+      <c r="C30" s="70"/>
+      <c r="D30" s="67">
         <v>1</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="24">
+      <c r="C31" s="17"/>
+      <c r="D31" s="68">
         <v>0.6</v>
       </c>
     </row>
